--- a/public/template/excel/format_laporan_operasi_2021_preview_date_compare.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021_preview_date_compare.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bertho\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\korlantas\public\template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="510" windowWidth="33600" windowHeight="20490"/>
+    <workbookView xWindow="0" yWindow="516" windowWidth="33600" windowHeight="20496"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -540,9 +540,6 @@
     <t>g. Materiil</t>
   </si>
   <si>
-    <t>TAHUN</t>
-  </si>
-  <si>
     <t>BARANGBUKTI YANG DISITA</t>
   </si>
   <si>
@@ -937,6 +934,9 @@
   </si>
   <si>
     <t>$sheet-&gt;setCellValue('Dxx', $current-&gt;xxx);</t>
+  </si>
+  <si>
+    <t>TANGGAL</t>
   </si>
 </sst>
 </file>
@@ -1731,16 +1731,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B409" sqref="B409"/>
+    <sheetView tabSelected="1" topLeftCell="A371" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D380" sqref="D380"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="97.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="D1" s="66"/>
       <c r="E1" s="67" t="s">
@@ -1759,7 +1759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="64"/>
       <c r="B2" s="64"/>
       <c r="C2" s="2">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="G2" s="64"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1799,9 +1799,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -1812,7 +1812,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1827,12 +1827,12 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C6" s="10">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>8</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>8</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
         <v>20</v>
@@ -2105,7 +2105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
         <v>21</v>
@@ -2128,7 +2128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
         <v>22</v>
@@ -2151,7 +2151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
         <v>23</v>
@@ -2174,7 +2174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
         <v>24</v>
@@ -2197,7 +2197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
         <v>25</v>
@@ -2220,7 +2220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
         <v>26</v>
@@ -2243,7 +2243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
         <v>27</v>
@@ -2266,7 +2266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
         <v>28</v>
@@ -2289,7 +2289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>8</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>8</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
@@ -2379,7 +2379,7 @@
       <c r="F29" s="12"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="9" t="s">
         <v>33</v>
@@ -2402,7 +2402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="9" t="s">
         <v>34</v>
@@ -2425,7 +2425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="9" t="s">
         <v>35</v>
@@ -2448,7 +2448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="9" t="s">
         <v>17</v>
@@ -2471,7 +2471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="9" t="s">
         <v>36</v>
@@ -2494,7 +2494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="9" t="s">
         <v>37</v>
@@ -2517,7 +2517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="9" t="s">
         <v>20</v>
@@ -2540,7 +2540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="9" t="s">
         <v>21</v>
@@ -2563,7 +2563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="9" t="s">
         <v>38</v>
@@ -2586,7 +2586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="9" t="s">
         <v>39</v>
@@ -2609,7 +2609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
         <v>24</v>
@@ -2632,7 +2632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>8</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>8</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>8</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>8</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>8</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9" t="s">
         <v>30</v>
@@ -2780,12 +2780,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C47" s="10">
         <f>SUM(C30:C46)</f>
@@ -2807,7 +2807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
         <v>40</v>
@@ -2818,7 +2818,7 @@
       <c r="F48" s="12"/>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="9" t="s">
         <v>41</v>
@@ -2841,12 +2841,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C50" s="10">
         <v>0</v>
@@ -2866,12 +2866,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>3</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="15"/>
@@ -2879,10 +2879,10 @@
       <c r="F51" s="12"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C52" s="10">
         <v>0</v>
@@ -2902,10 +2902,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C53" s="10">
         <v>0</v>
@@ -2925,10 +2925,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C54" s="10">
         <v>0</v>
@@ -2948,10 +2948,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C55" s="10">
         <f>SUM(C52:C54)</f>
@@ -2973,7 +2973,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>4</v>
       </c>
@@ -2986,7 +2986,7 @@
       <c r="F56" s="12"/>
       <c r="G56" s="14"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>8</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>8</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>8</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
         <v>8</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>8</v>
       </c>
@@ -3111,12 +3111,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C62" s="10">
         <f>SUM(C57:C61)</f>
@@ -3138,12 +3138,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>5</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="15"/>
@@ -3151,7 +3151,7 @@
       <c r="F63" s="12"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>8</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>8</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>8</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>8</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>8</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>8</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>8</v>
       </c>
@@ -3326,12 +3326,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C71" s="10">
         <f>SUM(C64:C69)</f>
@@ -3353,7 +3353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>6</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="F72" s="12"/>
       <c r="G72" s="14"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="9" t="s">
         <v>57</v>
@@ -3389,7 +3389,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>8</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>8</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>8</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>8</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
       <c r="B78" s="9" t="s">
         <v>63</v>
@@ -3512,7 +3512,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
       <c r="B79" s="9" t="s">
         <v>64</v>
@@ -3535,7 +3535,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
       <c r="B80" s="9" t="s">
         <v>65</v>
@@ -3558,7 +3558,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>8</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
       <c r="B82" s="9" t="s">
         <v>67</v>
@@ -3606,7 +3606,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
       <c r="B83" s="9" t="s">
         <v>68</v>
@@ -3629,12 +3629,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C84" s="10">
         <f>SUM(C73:C83)</f>
@@ -3656,7 +3656,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>7</v>
       </c>
@@ -3669,7 +3669,7 @@
       <c r="F85" s="12"/>
       <c r="G85" s="14"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>8</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>8</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>8</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>8</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>8</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>8</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="9"/>
       <c r="B92" s="9" t="s">
         <v>77</v>
@@ -3842,7 +3842,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>8</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>8</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>8</v>
       </c>
@@ -3917,12 +3917,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C96" s="10">
         <f>SUM(C86:C94)</f>
@@ -3944,7 +3944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>8</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="F97" s="12"/>
       <c r="G97" s="14"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="6" t="s">
         <v>121</v>
@@ -3968,7 +3968,7 @@
       <c r="F98" s="12"/>
       <c r="G98" s="14"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
       <c r="B99" s="9" t="s">
         <v>122</v>
@@ -3991,7 +3991,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="9" t="s">
         <v>123</v>
@@ -4014,7 +4014,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="9" t="s">
         <v>124</v>
@@ -4037,7 +4037,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" s="9" t="s">
         <v>125</v>
@@ -4060,7 +4060,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="9" t="s">
         <v>126</v>
@@ -4083,10 +4083,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C104" s="10">
         <f>SUM(C99:C103)</f>
@@ -4108,7 +4108,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
       <c r="B105" s="6" t="s">
         <v>127</v>
@@ -4119,7 +4119,7 @@
       <c r="F105" s="12"/>
       <c r="G105" s="14"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="9" t="s">
         <v>82</v>
@@ -4142,7 +4142,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
       <c r="B107" s="9" t="s">
         <v>84</v>
@@ -4165,7 +4165,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
       <c r="B108" s="9" t="s">
         <v>85</v>
@@ -4188,7 +4188,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
       <c r="B109" s="9" t="s">
         <v>86</v>
@@ -4211,10 +4211,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
       <c r="B110" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C110" s="10">
         <f>SUM(C106:C109)</f>
@@ -4236,7 +4236,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
       <c r="B111" s="6" t="s">
         <v>128</v>
@@ -4247,7 +4247,7 @@
       <c r="F111" s="12"/>
       <c r="G111" s="14"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="9" t="s">
         <v>87</v>
@@ -4270,7 +4270,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
       <c r="B113" s="9" t="s">
         <v>88</v>
@@ -4293,7 +4293,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
       <c r="B114" s="9" t="s">
         <v>89</v>
@@ -4316,7 +4316,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
       <c r="B115" s="9" t="s">
         <v>90</v>
@@ -4339,10 +4339,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
       <c r="B116" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C116" s="10">
         <f>SUM(C112:C115)</f>
@@ -4364,9 +4364,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>91</v>
@@ -4377,7 +4377,7 @@
       <c r="F117" s="12"/>
       <c r="G117" s="14"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>9</v>
       </c>
@@ -4390,7 +4390,7 @@
       <c r="F118" s="12"/>
       <c r="G118" s="14"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>8</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>8</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>8</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>8</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>8</v>
       </c>
@@ -4512,15 +4512,15 @@
         <v>0</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>10</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C124" s="25"/>
       <c r="D124" s="15"/>
@@ -4528,10 +4528,10 @@
       <c r="F124" s="12"/>
       <c r="G124" s="13"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
       <c r="B125" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C125" s="10">
         <v>0</v>
@@ -4551,10 +4551,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="9"/>
       <c r="B126" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C126" s="10">
         <v>0</v>
@@ -4574,10 +4574,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
       <c r="B127" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C127" s="10">
         <v>0</v>
@@ -4597,10 +4597,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="9"/>
       <c r="B128" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C128" s="10">
         <f>SUM(C125:C127)</f>
@@ -4622,12 +4622,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>11</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C129" s="27"/>
       <c r="D129" s="15"/>
@@ -4635,7 +4635,7 @@
       <c r="F129" s="12"/>
       <c r="G129" s="27"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>8</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>8</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
         <v>8</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>8</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>8</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>8</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>8</v>
       </c>
@@ -4810,12 +4810,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C137" s="10">
         <f>SUM(C130:C136)</f>
@@ -4837,12 +4837,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>12</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C138" s="27"/>
       <c r="D138" s="15"/>
@@ -4850,7 +4850,7 @@
       <c r="F138" s="12"/>
       <c r="G138" s="27"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="6"/>
       <c r="B139" s="9" t="s">
         <v>57</v>
@@ -4873,7 +4873,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="6"/>
       <c r="B140" s="9" t="s">
         <v>59</v>
@@ -4896,7 +4896,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="6"/>
       <c r="B141" s="9" t="s">
         <v>60</v>
@@ -4919,7 +4919,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="6"/>
       <c r="B142" s="9" t="s">
         <v>61</v>
@@ -4942,7 +4942,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="6"/>
       <c r="B143" s="9" t="s">
         <v>62</v>
@@ -4965,7 +4965,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="6"/>
       <c r="B144" s="9" t="s">
         <v>63</v>
@@ -4988,7 +4988,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>8</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>8</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>8</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>8</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="16" t="s">
         <v>8</v>
       </c>
@@ -5113,12 +5113,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C150" s="10">
         <f>SUM(C139:C149)</f>
@@ -5140,12 +5140,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>13</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C151" s="27"/>
       <c r="D151" s="15"/>
@@ -5153,7 +5153,7 @@
       <c r="F151" s="12"/>
       <c r="G151" s="27"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>8</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>8</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>8</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>8</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>8</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>8</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="9"/>
       <c r="B158" s="9" t="s">
         <v>77</v>
@@ -5326,7 +5326,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>8</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="9"/>
       <c r="B160" s="29" t="s">
         <v>79</v>
@@ -5374,7 +5374,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>8</v>
       </c>
@@ -5399,12 +5399,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C162" s="10">
         <f>SUM(C152:C161)</f>
@@ -5426,7 +5426,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>14</v>
       </c>
@@ -5439,7 +5439,7 @@
       <c r="F163" s="12"/>
       <c r="G163" s="14"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>8</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>8</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>8</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>8</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>8</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>8</v>
       </c>
@@ -5589,12 +5589,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C170" s="10">
         <f>SUM(C164:C168)</f>
@@ -5616,7 +5616,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>15</v>
       </c>
@@ -5629,7 +5629,7 @@
       <c r="F171" s="12"/>
       <c r="G171" s="14"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>8</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>8</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>8</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="9"/>
       <c r="B175" s="9" t="s">
         <v>110</v>
@@ -5727,7 +5727,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>8</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
         <v>8</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>8</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="16" t="s">
         <v>8</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="9"/>
       <c r="B180" s="9" t="s">
         <v>115</v>
@@ -5850,7 +5850,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>8</v>
       </c>
@@ -5875,12 +5875,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C182" s="10">
         <f>SUM(C172:C181)</f>
@@ -5902,12 +5902,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="6">
         <v>16</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="15"/>
@@ -5915,7 +5915,7 @@
       <c r="F183" s="12"/>
       <c r="G183" s="14"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>8</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
         <v>8</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
         <v>8</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>8</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
         <v>8</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="9" t="s">
         <v>8</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
         <v>8</v>
       </c>
@@ -6090,12 +6090,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C191" s="10">
         <f>SUM(C184:C190)</f>
@@ -6117,7 +6117,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>17</v>
       </c>
@@ -6130,7 +6130,7 @@
       <c r="F192" s="12"/>
       <c r="G192" s="14"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
       <c r="B193" s="9" t="s">
         <v>57</v>
@@ -6153,7 +6153,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="6"/>
       <c r="B194" s="9" t="s">
         <v>59</v>
@@ -6176,7 +6176,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
       <c r="B195" s="9" t="s">
         <v>60</v>
@@ -6199,7 +6199,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="9" t="s">
         <v>61</v>
@@ -6222,7 +6222,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
       <c r="B197" s="9" t="s">
         <v>62</v>
@@ -6245,7 +6245,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
       <c r="B198" s="9" t="s">
         <v>63</v>
@@ -6268,7 +6268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
       <c r="B199" s="9" t="s">
         <v>64</v>
@@ -6291,7 +6291,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>8</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>8</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
         <v>8</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="9" t="s">
         <v>8</v>
       </c>
@@ -6391,12 +6391,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C204" s="10">
         <f>SUM(C193:C203)</f>
@@ -6418,7 +6418,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="30">
         <v>18</v>
       </c>
@@ -6431,7 +6431,7 @@
       <c r="F205" s="12"/>
       <c r="G205" s="31"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
         <v>8</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
         <v>8</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
         <v>8</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="9" t="s">
         <v>8</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
         <v>8</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
         <v>8</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="9"/>
       <c r="B212" s="9" t="s">
         <v>77</v>
@@ -6604,7 +6604,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="9"/>
       <c r="B213" s="9" t="s">
         <v>78</v>
@@ -6627,7 +6627,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="9" t="s">
         <v>8</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
         <v>8</v>
       </c>
@@ -6677,12 +6677,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C216" s="10">
         <f>SUM(C206:C215)</f>
@@ -6704,7 +6704,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
         <v>19</v>
       </c>
@@ -6717,7 +6717,7 @@
       <c r="F217" s="12"/>
       <c r="G217" s="14"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
         <v>8</v>
       </c>
@@ -6730,7 +6730,7 @@
       <c r="F218" s="12"/>
       <c r="G218" s="13"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>8</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
         <v>8</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>8</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>8</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="9"/>
       <c r="B223" s="9" t="s">
         <v>126</v>
@@ -6853,12 +6853,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C224" s="10">
         <v>0</v>
@@ -6878,12 +6878,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C225" s="10">
         <f>SUM(C219:C224)</f>
@@ -6905,7 +6905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>8</v>
       </c>
@@ -6918,7 +6918,7 @@
       <c r="F226" s="12"/>
       <c r="G226" s="14"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>8</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="9" t="s">
         <v>8</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
         <v>8</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="9" t="s">
         <v>8</v>
       </c>
@@ -7018,12 +7018,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C231" s="10">
         <f>SUM(C227:C230)</f>
@@ -7045,7 +7045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>8</v>
       </c>
@@ -7058,7 +7058,7 @@
       <c r="F232" s="12"/>
       <c r="G232" s="14"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="9" t="s">
         <v>8</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="9" t="s">
         <v>8</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
         <v>8</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
         <v>8</v>
       </c>
@@ -7158,12 +7158,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C237" s="10">
         <f>SUM(C233:C236)</f>
@@ -7185,7 +7185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
         <v>20</v>
       </c>
@@ -7198,7 +7198,7 @@
       <c r="F238" s="12"/>
       <c r="G238" s="14"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
         <v>8</v>
       </c>
@@ -7215,7 +7215,7 @@
       <c r="F239" s="12"/>
       <c r="G239" s="13"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="9" t="s">
         <v>8</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="9" t="s">
         <v>8</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="9" t="s">
         <v>8</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="9"/>
       <c r="B243" s="9" t="s">
         <v>134</v>
@@ -7313,7 +7313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="9"/>
       <c r="B244" s="9" t="s">
         <v>135</v>
@@ -7336,7 +7336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="9"/>
       <c r="B245" s="9" t="s">
         <v>136</v>
@@ -7359,7 +7359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="9"/>
       <c r="B246" s="9" t="s">
         <v>137</v>
@@ -7382,7 +7382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="9"/>
       <c r="B247" s="9" t="s">
         <v>138</v>
@@ -7405,7 +7405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="9"/>
       <c r="B248" s="9" t="s">
         <v>139</v>
@@ -7428,10 +7428,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="9"/>
       <c r="B249" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C249" s="10">
         <v>0</v>
@@ -7451,7 +7451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="9"/>
       <c r="B250" s="9" t="s">
         <v>140</v>
@@ -7474,7 +7474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="9" t="s">
         <v>8</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="9" t="s">
         <v>8</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="9" t="s">
         <v>8</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="9" t="s">
         <v>8</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="9"/>
       <c r="B255" s="9" t="s">
         <v>145</v>
@@ -7589,7 +7589,7 @@
       <c r="F255" s="12"/>
       <c r="G255" s="13"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="9"/>
       <c r="B256" s="9" t="s">
         <v>146</v>
@@ -7612,7 +7612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="9"/>
       <c r="B257" s="9" t="s">
         <v>147</v>
@@ -7635,7 +7635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="9"/>
       <c r="B258" s="9" t="s">
         <v>148</v>
@@ -7658,7 +7658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="9"/>
       <c r="B259" s="9" t="s">
         <v>149</v>
@@ -7681,10 +7681,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="9"/>
       <c r="B260" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C260" s="10">
         <f>SUM(C239:C259)</f>
@@ -7706,7 +7706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="6">
         <v>21</v>
       </c>
@@ -7719,7 +7719,7 @@
       <c r="F261" s="12"/>
       <c r="G261" s="14"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="9" t="s">
         <v>8</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="9" t="s">
         <v>8</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="9" t="s">
         <v>8</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="9" t="s">
         <v>8</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="9" t="s">
         <v>8</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="9" t="s">
         <v>8</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="9" t="s">
         <v>8</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="9"/>
       <c r="B269" s="9" t="s">
         <v>158</v>
@@ -7917,12 +7917,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C270" s="10">
         <f>SUM(C262:C269)</f>
@@ -7944,7 +7944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="6">
         <v>22</v>
       </c>
@@ -7957,7 +7957,7 @@
       <c r="F271" s="12"/>
       <c r="G271" s="14"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="9" t="s">
         <v>8</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="9" t="s">
         <v>8</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="9" t="s">
         <v>8</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="9" t="s">
         <v>8</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="9" t="s">
         <v>8</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="6">
         <v>23</v>
       </c>
@@ -8095,12 +8095,12 @@
       <c r="F277" s="12"/>
       <c r="G277" s="14"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C278" s="10">
         <v>0</v>
@@ -8120,7 +8120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="9" t="s">
         <v>8</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="20"/>
       <c r="B280" s="21" t="s">
         <v>96</v>
@@ -8168,7 +8168,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="9" t="s">
         <v>8</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="9" t="s">
         <v>8</v>
       </c>
@@ -8218,12 +8218,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="6">
         <v>24</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C283" s="7"/>
       <c r="D283" s="15"/>
@@ -8231,7 +8231,7 @@
       <c r="F283" s="12"/>
       <c r="G283" s="14"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="9"/>
       <c r="B284" s="9" t="s">
         <v>162</v>
@@ -8254,7 +8254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="9"/>
       <c r="B285" s="9" t="s">
         <v>95</v>
@@ -8277,7 +8277,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="9"/>
       <c r="B286" s="9" t="s">
         <v>96</v>
@@ -8300,7 +8300,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="9"/>
       <c r="B287" s="9" t="s">
         <v>97</v>
@@ -8323,7 +8323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="9"/>
       <c r="B288" s="9" t="s">
         <v>160</v>
@@ -8346,12 +8346,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="6">
         <v>25</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C289" s="7"/>
       <c r="D289" s="15"/>
@@ -8359,7 +8359,7 @@
       <c r="F289" s="12"/>
       <c r="G289" s="14"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="9" t="s">
         <v>8</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="9" t="s">
         <v>8</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="9" t="s">
         <v>8</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="9" t="s">
         <v>8</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="9" t="s">
         <v>8</v>
       </c>
@@ -8484,12 +8484,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="6">
         <v>26</v>
       </c>
       <c r="B295" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C295" s="27"/>
       <c r="D295" s="15"/>
@@ -8497,7 +8497,7 @@
       <c r="F295" s="12"/>
       <c r="G295" s="27"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="9"/>
       <c r="B296" s="9" t="s">
         <v>93</v>
@@ -8520,7 +8520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="9"/>
       <c r="B297" s="9" t="s">
         <v>95</v>
@@ -8543,7 +8543,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="9"/>
       <c r="B298" s="9" t="s">
         <v>96</v>
@@ -8566,7 +8566,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="9"/>
       <c r="B299" s="9" t="s">
         <v>97</v>
@@ -8589,7 +8589,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="9"/>
       <c r="B300" s="9" t="s">
         <v>160</v>
@@ -8612,12 +8612,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="6">
         <v>27</v>
       </c>
       <c r="B301" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C301" s="27"/>
       <c r="D301" s="15"/>
@@ -8625,7 +8625,7 @@
       <c r="F301" s="12"/>
       <c r="G301" s="27"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="9"/>
       <c r="B302" s="9" t="s">
         <v>93</v>
@@ -8648,7 +8648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="9"/>
       <c r="B303" s="9" t="s">
         <v>95</v>
@@ -8671,7 +8671,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="9"/>
       <c r="B304" s="9" t="s">
         <v>96</v>
@@ -8694,7 +8694,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="9"/>
       <c r="B305" s="9" t="s">
         <v>97</v>
@@ -8717,7 +8717,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="9"/>
       <c r="B306" s="9" t="s">
         <v>160</v>
@@ -8740,12 +8740,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="6">
         <v>28</v>
       </c>
       <c r="B307" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C307" s="27"/>
       <c r="D307" s="15"/>
@@ -8753,7 +8753,7 @@
       <c r="F307" s="12"/>
       <c r="G307" s="27"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="9"/>
       <c r="B308" s="9" t="s">
         <v>93</v>
@@ -8776,7 +8776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="9"/>
       <c r="B309" s="9" t="s">
         <v>95</v>
@@ -8799,7 +8799,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="9"/>
       <c r="B310" s="9" t="s">
         <v>96</v>
@@ -8822,7 +8822,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="9"/>
       <c r="B311" s="9" t="s">
         <v>97</v>
@@ -8845,7 +8845,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="9"/>
       <c r="B312" s="9" t="s">
         <v>160</v>
@@ -8868,7 +8868,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="6">
         <v>29</v>
       </c>
@@ -8885,7 +8885,7 @@
       <c r="F313" s="12"/>
       <c r="G313" s="14"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="6"/>
       <c r="B314" s="9" t="s">
         <v>93</v>
@@ -8908,7 +8908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="9" t="s">
         <v>8</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="9" t="s">
         <v>8</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="9" t="s">
         <v>8</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="9" t="s">
         <v>8</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="9" t="s">
         <v>8</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="9"/>
       <c r="B320" s="9" t="s">
         <v>168</v>
@@ -9056,12 +9056,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="6">
         <v>30</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C321" s="10">
         <v>0</v>
@@ -9073,10 +9073,10 @@
       <c r="F321" s="12"/>
       <c r="G321" s="13"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="9"/>
       <c r="B322" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C322" s="10">
         <v>0</v>
@@ -9096,10 +9096,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="9"/>
       <c r="B323" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C323" s="10">
         <v>0</v>
@@ -9119,10 +9119,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="9"/>
       <c r="B324" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C324" s="10">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="9"/>
       <c r="B325" s="9" t="s">
         <v>11</v>
@@ -9167,12 +9167,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B326" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="B326" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="C326" s="33"/>
       <c r="D326" s="15"/>
@@ -9180,12 +9180,12 @@
       <c r="F326" s="12"/>
       <c r="G326" s="13"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="6">
         <v>31</v>
       </c>
       <c r="B327" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C327" s="35"/>
       <c r="D327" s="15"/>
@@ -9193,10 +9193,10 @@
       <c r="F327" s="12"/>
       <c r="G327" s="13"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="9"/>
       <c r="B328" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C328" s="34"/>
       <c r="D328" s="15"/>
@@ -9204,10 +9204,10 @@
       <c r="F328" s="12"/>
       <c r="G328" s="13"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="9"/>
       <c r="B329" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C329" s="10">
         <v>0</v>
@@ -9227,10 +9227,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="9"/>
       <c r="B330" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C330" s="10">
         <v>0</v>
@@ -9250,10 +9250,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="9"/>
       <c r="B331" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C331" s="10">
         <v>0</v>
@@ -9273,10 +9273,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="9"/>
       <c r="B332" s="37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C332" s="10">
         <v>0</v>
@@ -9296,10 +9296,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="9"/>
       <c r="B333" s="37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C333" s="10">
         <v>0</v>
@@ -9319,10 +9319,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="9"/>
       <c r="B334" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C334" s="10">
         <v>0</v>
@@ -9342,10 +9342,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="9"/>
       <c r="B335" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C335" s="10">
         <f>SUM(C329:C334)</f>
@@ -9367,10 +9367,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="9"/>
       <c r="B336" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C336" s="34"/>
       <c r="D336" s="15"/>
@@ -9378,10 +9378,10 @@
       <c r="F336" s="12"/>
       <c r="G336" s="13"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="9"/>
       <c r="B337" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C337" s="10">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="9"/>
       <c r="B338" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C338" s="10">
         <v>0</v>
@@ -9424,10 +9424,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="9"/>
       <c r="B339" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C339" s="10">
         <v>0</v>
@@ -9447,10 +9447,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="9"/>
       <c r="B340" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C340" s="10">
         <f>SUM(C337:C339)</f>
@@ -9471,10 +9471,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="9"/>
       <c r="B341" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C341" s="10">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="9"/>
       <c r="B342" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C342" s="40"/>
       <c r="D342" s="15"/>
@@ -9505,10 +9505,10 @@
       <c r="F342" s="12"/>
       <c r="G342" s="38"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="9"/>
       <c r="B343" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C343" s="10">
         <v>0</v>
@@ -9528,10 +9528,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="9"/>
       <c r="B344" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C344" s="10">
         <v>0</v>
@@ -9551,10 +9551,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="9"/>
       <c r="B345" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C345" s="10">
         <v>0</v>
@@ -9574,10 +9574,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="9"/>
       <c r="B346" s="37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C346" s="10">
         <v>0</v>
@@ -9597,7 +9597,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="9"/>
       <c r="B347" s="36" t="s">
         <v>11</v>
@@ -9622,10 +9622,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="9"/>
       <c r="B348" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C348" s="34"/>
       <c r="D348" s="15"/>
@@ -9633,10 +9633,10 @@
       <c r="F348" s="12"/>
       <c r="G348" s="13"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="9"/>
       <c r="B349" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C349" s="10">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="9"/>
       <c r="B350" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C350" s="10">
         <v>0</v>
@@ -9679,10 +9679,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="20"/>
       <c r="B351" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C351" s="10">
         <v>0</v>
@@ -9702,10 +9702,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="9"/>
       <c r="B352" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C352" s="10">
         <v>0</v>
@@ -9725,10 +9725,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="9"/>
       <c r="B353" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C353" s="10">
         <v>0</v>
@@ -9748,10 +9748,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="9"/>
       <c r="B354" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C354" s="10">
         <v>0</v>
@@ -9771,10 +9771,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="9"/>
       <c r="B355" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C355" s="10">
         <v>0</v>
@@ -9794,7 +9794,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="9"/>
       <c r="B356" s="36" t="s">
         <v>11</v>
@@ -9819,12 +9819,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B357" s="34" t="s">
         <v>228</v>
-      </c>
-      <c r="B357" s="34" t="s">
-        <v>229</v>
       </c>
       <c r="C357" s="35"/>
       <c r="D357" s="15"/>
@@ -9832,12 +9832,12 @@
       <c r="F357" s="12"/>
       <c r="G357" s="35"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="41">
         <v>32</v>
       </c>
       <c r="B358" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C358" s="35"/>
       <c r="D358" s="10"/>
@@ -9845,10 +9845,10 @@
       <c r="F358" s="12"/>
       <c r="G358" s="13"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="41"/>
       <c r="B359" s="37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C359" s="10">
         <v>0</v>
@@ -9868,10 +9868,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="41"/>
       <c r="B360" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C360" s="10">
         <v>0</v>
@@ -9891,10 +9891,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="41"/>
       <c r="B361" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C361" s="10">
         <v>0</v>
@@ -9914,10 +9914,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="41"/>
       <c r="B362" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C362" s="10">
         <v>0</v>
@@ -9937,7 +9937,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="41"/>
       <c r="B363" s="36" t="s">
         <v>11</v>
@@ -9962,12 +9962,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="B364" s="43" t="s">
         <v>260</v>
-      </c>
-      <c r="B364" s="43" t="s">
-        <v>261</v>
       </c>
       <c r="C364" s="44"/>
       <c r="D364" s="15"/>
@@ -9975,12 +9975,12 @@
       <c r="F364" s="12"/>
       <c r="G364" s="13"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="45">
         <v>33</v>
       </c>
       <c r="B365" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C365" s="47"/>
       <c r="D365" s="15"/>
@@ -9988,12 +9988,12 @@
       <c r="F365" s="12"/>
       <c r="G365" s="13"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="B366" s="49" t="s">
         <v>234</v>
-      </c>
-      <c r="B366" s="49" t="s">
-        <v>235</v>
       </c>
       <c r="C366" s="50"/>
       <c r="D366" s="15"/>
@@ -10001,10 +10001,10 @@
       <c r="F366" s="12"/>
       <c r="G366" s="13"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="48"/>
       <c r="B367" s="48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C367" s="10">
         <v>0</v>
@@ -10024,10 +10024,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="48"/>
       <c r="B368" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C368" s="10">
         <v>0</v>
@@ -10047,10 +10047,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="48"/>
       <c r="B369" s="48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C369" s="10">
         <v>0</v>
@@ -10070,10 +10070,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="48"/>
       <c r="B370" s="48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C370" s="10">
         <v>0</v>
@@ -10093,10 +10093,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="48"/>
       <c r="B371" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C371" s="10">
         <v>0</v>
@@ -10113,13 +10113,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G371" s="52" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="48"/>
       <c r="B372" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C372" s="10">
         <v>0</v>
@@ -10139,10 +10139,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="48"/>
       <c r="B373" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C373" s="10">
         <v>0</v>
@@ -10162,10 +10162,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="48"/>
       <c r="B374" s="49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C374" s="10">
         <v>0</v>
@@ -10185,10 +10185,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="48"/>
       <c r="B375" s="49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C375" s="10">
         <v>0</v>
@@ -10208,12 +10208,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B376" s="49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C376" s="53"/>
       <c r="D376" s="15"/>
@@ -10221,10 +10221,10 @@
       <c r="F376" s="12"/>
       <c r="G376" s="54"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="48"/>
       <c r="B377" s="49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C377" s="10">
         <v>0</v>
@@ -10241,13 +10241,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G377" s="52" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="48"/>
       <c r="B378" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C378" s="10">
         <v>0</v>
@@ -10267,10 +10267,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="48"/>
       <c r="B379" s="49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C379" s="10">
         <v>0</v>
@@ -10290,25 +10290,23 @@
         <v>58</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B380" s="49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C380" s="53"/>
-      <c r="D380" s="10">
-        <v>0</v>
-      </c>
+      <c r="D380" s="10"/>
       <c r="E380" s="11"/>
       <c r="F380" s="12"/>
       <c r="G380" s="55"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="48"/>
       <c r="B381" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C381" s="10">
         <v>0</v>
@@ -10328,10 +10326,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="48"/>
       <c r="B382" s="48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C382" s="10">
         <v>0</v>
@@ -10351,10 +10349,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="48"/>
       <c r="B383" s="48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C383" s="10">
         <v>0</v>
@@ -10374,10 +10372,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="48"/>
       <c r="B384" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C384" s="10">
         <v>0</v>
@@ -10397,10 +10395,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="48"/>
       <c r="B385" s="48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C385" s="10">
         <v>0</v>
@@ -10420,10 +10418,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="48"/>
       <c r="B386" s="48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C386" s="10">
         <v>0</v>
@@ -10443,10 +10441,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="48"/>
       <c r="B387" s="48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C387" s="10">
         <v>0</v>
@@ -10466,10 +10464,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="48"/>
       <c r="B388" s="48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C388" s="10">
         <v>0</v>
@@ -10489,10 +10487,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A389" s="48"/>
       <c r="B389" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C389" s="10">
         <v>0</v>
@@ -10509,13 +10507,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G389" s="56" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="48"/>
       <c r="B390" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C390" s="10">
         <v>0</v>
@@ -10535,10 +10533,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="48"/>
       <c r="B391" s="49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C391" s="10">
         <v>0</v>
@@ -10558,10 +10556,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="48"/>
       <c r="B392" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C392" s="10">
         <v>0</v>
@@ -10581,10 +10579,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="48"/>
       <c r="B393" s="49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C393" s="10">
         <v>0</v>
@@ -10604,12 +10602,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B394" s="49" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C394" s="53"/>
       <c r="D394" s="15"/>
@@ -10617,10 +10615,10 @@
       <c r="F394" s="12"/>
       <c r="G394" s="55"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="48"/>
       <c r="B395" s="48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C395" s="10">
         <v>0</v>
@@ -10640,10 +10638,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="48"/>
       <c r="B396" s="48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C396" s="10">
         <v>0</v>
@@ -10663,10 +10661,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="48"/>
       <c r="B397" s="49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C397" s="10">
         <v>0</v>
@@ -10683,13 +10681,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G397" s="52" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="48"/>
       <c r="B398" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C398" s="10">
         <v>0</v>
@@ -10709,10 +10707,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="48"/>
       <c r="B399" s="49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C399" s="10">
         <v>0</v>
@@ -10732,12 +10730,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C400" s="44"/>
       <c r="D400" s="15"/>
@@ -10745,12 +10743,12 @@
       <c r="F400" s="12"/>
       <c r="G400" s="13"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="45">
         <v>34</v>
       </c>
       <c r="B401" s="57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C401" s="47"/>
       <c r="D401" s="15"/>
@@ -10758,10 +10756,10 @@
       <c r="F401" s="12"/>
       <c r="G401" s="13"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="48"/>
       <c r="B402" s="58" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C402" s="10">
         <v>0</v>
@@ -10781,10 +10779,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="48"/>
       <c r="B403" s="58" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C403" s="10">
         <v>0</v>
@@ -10804,10 +10802,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="48"/>
       <c r="B404" s="58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C404" s="10">
         <v>0</v>
@@ -10827,10 +10825,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="48"/>
       <c r="B405" s="58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C405" s="10">
         <v>0</v>
@@ -10850,7 +10848,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="59"/>
       <c r="B406" s="36" t="s">
         <v>11</v>
@@ -10895,16 +10893,16 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
